--- a/Banco Central/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Serie</t>
   </si>
@@ -434,6 +434,18 @@
   </si>
   <si>
     <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -791,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3081,6 +3093,74 @@
         <v>765</v>
       </c>
     </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135">
+        <v>40</v>
+      </c>
+      <c r="C135">
+        <v>139</v>
+      </c>
+      <c r="D135">
+        <v>40</v>
+      </c>
+      <c r="E135">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
+        <v>40</v>
+      </c>
+      <c r="C136">
+        <v>109</v>
+      </c>
+      <c r="D136">
+        <v>40</v>
+      </c>
+      <c r="E136">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>40</v>
+      </c>
+      <c r="C137">
+        <v>121</v>
+      </c>
+      <c r="D137">
+        <v>40</v>
+      </c>
+      <c r="E137">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138">
+        <v>40</v>
+      </c>
+      <c r="C138">
+        <v>143</v>
+      </c>
+      <c r="D138">
+        <v>30</v>
+      </c>
+      <c r="E138">
+        <v>775</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/11/Compra de dólares por licitación 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Serie</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
   </si>
 </sst>
 </file>
@@ -803,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3161,6 +3167,40 @@
         <v>775</v>
       </c>
     </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+      <c r="C139">
+        <v>207</v>
+      </c>
+      <c r="D139">
+        <v>50</v>
+      </c>
+      <c r="E139">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
+        <v>40</v>
+      </c>
+      <c r="C140">
+        <v>158</v>
+      </c>
+      <c r="D140">
+        <v>40</v>
+      </c>
+      <c r="E140">
+        <v>776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
